--- a/code/content/TOPIC_XLSX/요일_1.xlsx
+++ b/code/content/TOPIC_XLSX/요일_1.xlsx
@@ -393,39 +393,39 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
